--- a/text/latex/excelGraphs.xlsx
+++ b/text/latex/excelGraphs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Noticias </t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>NBW Features</t>
+  </si>
+  <si>
+    <t>LinkTag</t>
+  </si>
+  <si>
+    <t>Merge</t>
   </si>
 </sst>
 </file>
@@ -283,11 +289,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1476120304"/>
-        <c:axId val="1476121936"/>
+        <c:axId val="1938720400"/>
+        <c:axId val="1938717136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1476120304"/>
+        <c:axId val="1938720400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -330,7 +336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1476121936"/>
+        <c:crossAx val="1938717136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -338,7 +344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1476121936"/>
+        <c:axId val="1938717136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1476120304"/>
+        <c:crossAx val="1938720400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -601,11 +607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1866069824"/>
-        <c:axId val="1866069280"/>
+        <c:axId val="1995367968"/>
+        <c:axId val="1995366880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1866069824"/>
+        <c:axId val="1995367968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,12 +668,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1866069280"/>
+        <c:crossAx val="1995366880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1866069280"/>
+        <c:axId val="1995366880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1866069824"/>
+        <c:crossAx val="1995367968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -936,11 +942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1816310768"/>
-        <c:axId val="1816314576"/>
+        <c:axId val="1995375040"/>
+        <c:axId val="1995376672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1816310768"/>
+        <c:axId val="1995375040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,12 +1003,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816314576"/>
+        <c:crossAx val="1995376672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1816314576"/>
+        <c:axId val="1995376672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816310768"/>
+        <c:crossAx val="1995375040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1688,11 +1694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1876422592"/>
-        <c:axId val="1876426400"/>
+        <c:axId val="1995380480"/>
+        <c:axId val="1995366336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1876422592"/>
+        <c:axId val="1995380480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,12 +1755,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876426400"/>
+        <c:crossAx val="1995366336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1876426400"/>
+        <c:axId val="1995366336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1817,3139 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876422592"/>
+        <c:crossAx val="1995380480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Minorias </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Celebridade </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Educacao </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Humor </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bebes / Animais </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Esporte </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Filmes / Series</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Noticias </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ciencia / Tecnologia / Meio Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Turismo </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pessoal </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Medicina </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Propaganda </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Politica / Economia </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NB Somente Texto</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.21230769230800001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25538461538500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33473684210499999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35686274509799998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39301587301599999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38578947368400002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40954545454500002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45188118811900002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45769911504400002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.465396825397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46637681159400002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48052980132500001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48858895705499999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.493636363636</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49723404255300002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NB Features Extras</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$20:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.24615384615399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32153846153799998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34105263157900001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41568627451000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43301587301599997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44157894736800002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45772727272699998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46336633663400001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46548672566400001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47492063492100001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47333333333299998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48927152317900002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50503067484700004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49727272727299998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50702127659600005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Weighted NB Somente Texto</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$20:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.24923076923099999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.270769230769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32947368421099998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34196078431400001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38730158730199998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40578947368399998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44772727272700003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46217821782200003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45628318584100003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47428571428600003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49801324503299998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.496687116564</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51159090909100002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54021276595699996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Weighted NB Features Extras</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$20:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.30769230769200001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35692307692300002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41789473684200001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.410980392157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44507936507899998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48789473684200002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52752475247499997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53238938053100004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55619047618999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56434782608699996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58543046357600004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59190184049100003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60613636363599999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61021276595700003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1996117168"/>
+        <c:axId val="1996113904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1996117168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1996113904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1996113904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1996117168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WNB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$20:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.20270212491600001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27411455957500003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34696533803200003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33833540292399999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38082704224199998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42826281259100002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44692555604400003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47401075495299999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47812043043399999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50654983049799995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51592112511699995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53686151945100002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54732869816999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56156076857000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56571579561499996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>WNB com fusão de classes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$20:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.187869262324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.296428906888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36797792170999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41736174154099998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47360379480999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47825656569199998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49906306346399998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52414397022600001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53162740650100004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57024624821400005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56043758832199997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57184905137399999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58323517377099998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59709533757400002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59174665042100005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>WNB com tags dos links</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$20:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.22324861444300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35678267917899997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37884474660700002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40660326832799998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48285165489300003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51423878532900003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51293962806500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53946405012200005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56224884239799999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55452807500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57642734802700002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58661847045799997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60025237083399996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61367819992999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60993540471399998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2026294368"/>
+        <c:axId val="2026293824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2026294368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026293824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2026293824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026294368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WNB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$20:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.30769230769200001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35692307692300002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41789473684200001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.410980392157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44507936507899998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48789473684200002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52752475247499997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53238938053100004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55619047618999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56434782608699996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58543046357600004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59190184049100003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60613636363599999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61021276595700003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>WNB  com fusão de classes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$20:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.29230769230800002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38769230769200003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46210526315799999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49568627451000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.546031746032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54684210526300003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56863636363600001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58891089108899997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59469026548699999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.629523809524</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61884057970999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62754966887399999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63803680981599997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65113636363600003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64553191489399997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>WNB com tags dos links</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$20:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.446153846154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46315789473699998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48862745097999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55174603174600001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.581052631579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57636363636400001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60158415841599999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62017699115000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.613333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.631884057971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64105960264899997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65128834355800003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66477272727299996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66085106383000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1944084992"/>
+        <c:axId val="1944087712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1944084992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1944087712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1944087712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1944084992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NB Simples</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.118287200137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15383802834099999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.238946893327</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25813829428200002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29928648329599999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29087315972400002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31056762957799999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35921577027200002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.370479777161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37252797431200002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38192793430200001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39533890723499998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40250260168500002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40966470789499998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41141898345200001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>WNB com tags dos links</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$20:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.22324861444300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35678267917899997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37884474660700002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40660326832799998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48285165489300003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51423878532900003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51293962806500004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53946405012200005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56224884239799999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55452807500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57642734802700002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58661847045799997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60025237083399996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61367819992999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60993540471399998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2000858480"/>
+        <c:axId val="2026297088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2000858480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026297088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2026297088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2000858480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2055,11 +5193,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1809449920"/>
-        <c:axId val="1809449376"/>
+        <c:axId val="1938724752"/>
+        <c:axId val="1938725296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1809449920"/>
+        <c:axId val="1938724752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,12 +5254,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809449376"/>
+        <c:crossAx val="1938725296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1809449376"/>
+        <c:axId val="1938725296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +5316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809449920"/>
+        <c:crossAx val="1938724752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2390,11 +5528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1810489664"/>
-        <c:axId val="1810495648"/>
+        <c:axId val="1938711152"/>
+        <c:axId val="1938712240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1810489664"/>
+        <c:axId val="1938711152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,12 +5589,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810495648"/>
+        <c:crossAx val="1938712240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1810495648"/>
+        <c:axId val="1938712240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +5651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810489664"/>
+        <c:crossAx val="1938711152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2725,11 +5863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1810487488"/>
-        <c:axId val="1810494560"/>
+        <c:axId val="1938712784"/>
+        <c:axId val="1938715504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1810487488"/>
+        <c:axId val="1938712784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,12 +5924,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810494560"/>
+        <c:crossAx val="1938715504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1810494560"/>
+        <c:axId val="1938715504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,7 +5986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810487488"/>
+        <c:crossAx val="1938712784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3060,11 +6198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1863345856"/>
-        <c:axId val="1863346944"/>
+        <c:axId val="1938714960"/>
+        <c:axId val="1938716048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1863345856"/>
+        <c:axId val="1938714960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,12 +6259,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863346944"/>
+        <c:crossAx val="1938716048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1863346944"/>
+        <c:axId val="1938716048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,7 +6321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863345856"/>
+        <c:crossAx val="1938714960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3536,11 +6674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1863344224"/>
-        <c:axId val="1863350752"/>
+        <c:axId val="1760922512"/>
+        <c:axId val="1760926320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1863344224"/>
+        <c:axId val="1760922512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3597,12 +6735,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863350752"/>
+        <c:crossAx val="1760926320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1863350752"/>
+        <c:axId val="1760926320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3659,7 +6797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863344224"/>
+        <c:crossAx val="1760922512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3903,11 +7041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1810492384"/>
-        <c:axId val="1810498912"/>
+        <c:axId val="1760930672"/>
+        <c:axId val="1760931216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1810492384"/>
+        <c:axId val="1760930672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,12 +7102,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810498912"/>
+        <c:crossAx val="1760931216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1810498912"/>
+        <c:axId val="1760931216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4026,7 +7164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810492384"/>
+        <c:crossAx val="1760930672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4238,11 +7376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1576349120"/>
-        <c:axId val="1576343680"/>
+        <c:axId val="1995371776"/>
+        <c:axId val="1995378848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1576349120"/>
+        <c:axId val="1995371776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4299,12 +7437,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576343680"/>
+        <c:crossAx val="1995378848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1576343680"/>
+        <c:axId val="1995378848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4361,7 +7499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576349120"/>
+        <c:crossAx val="1995371776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4714,11 +7852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1866066560"/>
-        <c:axId val="1866064384"/>
+        <c:axId val="1995381568"/>
+        <c:axId val="1995372320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1866066560"/>
+        <c:axId val="1995381568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,12 +7913,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1866064384"/>
+        <c:crossAx val="1995372320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1866064384"/>
+        <c:axId val="1995372320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,7 +7975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1866066560"/>
+        <c:crossAx val="1995381568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5039,6 +8177,206 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7449,6 +10787,2589 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11611,14 +17532,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -11939,6 +17860,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12205,10 +18276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:EK77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA19" workbookViewId="0">
-      <selection activeCell="CZ27" sqref="CZ27"/>
+    <sheetView tabSelected="1" topLeftCell="DZ58" workbookViewId="0">
+      <selection activeCell="EA67" sqref="EA67:EJ77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12338,7 +18409,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -12351,8 +18422,14 @@
       <c r="I19" t="s">
         <v>17</v>
       </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>50</v>
       </c>
@@ -12380,8 +18457,20 @@
       <c r="J20">
         <v>0.30769230769200001</v>
       </c>
+      <c r="K20">
+        <v>0.187869262324</v>
+      </c>
+      <c r="L20">
+        <v>0.29230769230800002</v>
+      </c>
+      <c r="M20">
+        <v>0.22324861444300001</v>
+      </c>
+      <c r="N20">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>100</v>
       </c>
@@ -12409,8 +18498,20 @@
       <c r="J21">
         <v>0.35692307692300002</v>
       </c>
+      <c r="K21">
+        <v>0.296428906888</v>
+      </c>
+      <c r="L21">
+        <v>0.38769230769200003</v>
+      </c>
+      <c r="M21">
+        <v>0.35678267917899997</v>
+      </c>
+      <c r="N21">
+        <v>0.446153846154</v>
+      </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>150</v>
       </c>
@@ -12438,8 +18539,20 @@
       <c r="J22">
         <v>0.41789473684200001</v>
       </c>
+      <c r="K22">
+        <v>0.36797792170999999</v>
+      </c>
+      <c r="L22">
+        <v>0.46210526315799999</v>
+      </c>
+      <c r="M22">
+        <v>0.37884474660700002</v>
+      </c>
+      <c r="N22">
+        <v>0.46315789473699998</v>
+      </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>200</v>
       </c>
@@ -12467,8 +18580,20 @@
       <c r="J23">
         <v>0.410980392157</v>
       </c>
+      <c r="K23">
+        <v>0.41736174154099998</v>
+      </c>
+      <c r="L23">
+        <v>0.49568627451000002</v>
+      </c>
+      <c r="M23">
+        <v>0.40660326832799998</v>
+      </c>
+      <c r="N23">
+        <v>0.48862745097999999</v>
+      </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>250</v>
       </c>
@@ -12496,8 +18621,20 @@
       <c r="J24">
         <v>0.44507936507899998</v>
       </c>
+      <c r="K24">
+        <v>0.47360379480999998</v>
+      </c>
+      <c r="L24">
+        <v>0.546031746032</v>
+      </c>
+      <c r="M24">
+        <v>0.48285165489300003</v>
+      </c>
+      <c r="N24">
+        <v>0.55174603174600001</v>
+      </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>300</v>
       </c>
@@ -12525,8 +18662,20 @@
       <c r="J25">
         <v>0.48789473684200002</v>
       </c>
+      <c r="K25">
+        <v>0.47825656569199998</v>
+      </c>
+      <c r="L25">
+        <v>0.54684210526300003</v>
+      </c>
+      <c r="M25">
+        <v>0.51423878532900003</v>
+      </c>
+      <c r="N25">
+        <v>0.581052631579</v>
+      </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>350</v>
       </c>
@@ -12554,8 +18703,20 @@
       <c r="J26">
         <v>0.505</v>
       </c>
+      <c r="K26">
+        <v>0.49906306346399998</v>
+      </c>
+      <c r="L26">
+        <v>0.56863636363600001</v>
+      </c>
+      <c r="M26">
+        <v>0.51293962806500004</v>
+      </c>
+      <c r="N26">
+        <v>0.57636363636400001</v>
+      </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>400</v>
       </c>
@@ -12583,8 +18744,20 @@
       <c r="J27">
         <v>0.52752475247499997</v>
       </c>
+      <c r="K27">
+        <v>0.52414397022600001</v>
+      </c>
+      <c r="L27">
+        <v>0.58891089108899997</v>
+      </c>
+      <c r="M27">
+        <v>0.53946405012200005</v>
+      </c>
+      <c r="N27">
+        <v>0.60158415841599999</v>
+      </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>450</v>
       </c>
@@ -12612,8 +18785,20 @@
       <c r="J28">
         <v>0.53238938053100004</v>
       </c>
+      <c r="K28">
+        <v>0.53162740650100004</v>
+      </c>
+      <c r="L28">
+        <v>0.59469026548699999</v>
+      </c>
+      <c r="M28">
+        <v>0.56224884239799999</v>
+      </c>
+      <c r="N28">
+        <v>0.62017699115000002</v>
+      </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>500</v>
       </c>
@@ -12641,8 +18826,20 @@
       <c r="J29">
         <v>0.55619047618999995</v>
       </c>
+      <c r="K29">
+        <v>0.57024624821400005</v>
+      </c>
+      <c r="L29">
+        <v>0.629523809524</v>
+      </c>
+      <c r="M29">
+        <v>0.55452807500000001</v>
+      </c>
+      <c r="N29">
+        <v>0.613333333333</v>
+      </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>550</v>
       </c>
@@ -12670,8 +18867,20 @@
       <c r="J30">
         <v>0.56434782608699996</v>
       </c>
+      <c r="K30">
+        <v>0.56043758832199997</v>
+      </c>
+      <c r="L30">
+        <v>0.61884057970999995</v>
+      </c>
+      <c r="M30">
+        <v>0.57642734802700002</v>
+      </c>
+      <c r="N30">
+        <v>0.631884057971</v>
+      </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>600</v>
       </c>
@@ -12699,8 +18908,20 @@
       <c r="J31">
         <v>0.58543046357600004</v>
       </c>
+      <c r="K31">
+        <v>0.57184905137399999</v>
+      </c>
+      <c r="L31">
+        <v>0.62754966887399999</v>
+      </c>
+      <c r="M31">
+        <v>0.58661847045799997</v>
+      </c>
+      <c r="N31">
+        <v>0.64105960264899997</v>
+      </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>650</v>
       </c>
@@ -12728,8 +18949,20 @@
       <c r="J32">
         <v>0.59190184049100003</v>
       </c>
+      <c r="K32">
+        <v>0.58323517377099998</v>
+      </c>
+      <c r="L32">
+        <v>0.63803680981599997</v>
+      </c>
+      <c r="M32">
+        <v>0.60025237083399996</v>
+      </c>
+      <c r="N32">
+        <v>0.65128834355800003</v>
+      </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>700</v>
       </c>
@@ -12757,8 +18990,20 @@
       <c r="J33">
         <v>0.60613636363599999</v>
       </c>
+      <c r="K33">
+        <v>0.59709533757400002</v>
+      </c>
+      <c r="L33">
+        <v>0.65113636363600003</v>
+      </c>
+      <c r="M33">
+        <v>0.61367819992999995</v>
+      </c>
+      <c r="N33">
+        <v>0.66477272727299996</v>
+      </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>750</v>
       </c>
@@ -12785,6 +19030,73 @@
       </c>
       <c r="J34">
         <v>0.61021276595700003</v>
+      </c>
+      <c r="K34">
+        <v>0.59174665042100005</v>
+      </c>
+      <c r="L34">
+        <v>0.64553191489399997</v>
+      </c>
+      <c r="M34">
+        <v>0.60993540471399998</v>
+      </c>
+      <c r="N34">
+        <v>0.66085106383000003</v>
+      </c>
+    </row>
+    <row r="67" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="141:141" x14ac:dyDescent="0.35">
+      <c r="EK77">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
